--- a/Semana 6/23112021/Inferential statistics - T-test & P-value.xlsx
+++ b/Semana 6/23112021/Inferential statistics - T-test & P-value.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vonate/Documents/Github/Ironhack/class_LABS/Semana 6/23112021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A341B2-13A1-5241-B12A-60E52A875AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CEDB8-7EA4-1343-9DF6-DA4D4A8BCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{E64C5207-00C4-424D-B262-156E7A45585D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="control_conversions">Sheet2!$D$8</definedName>
+    <definedName name="control_p">Sheet2!$F$8</definedName>
+    <definedName name="control_se">Sheet2!$I$8</definedName>
+    <definedName name="control_visitors">Sheet2!$C$8</definedName>
     <definedName name="machinetxt" localSheetId="0">Sheet1!$A$1:$B$11</definedName>
+    <definedName name="p_value">Sheet2!$C$20</definedName>
+    <definedName name="variation_conversions">Sheet2!$D$9</definedName>
+    <definedName name="variation_p">Sheet2!$F$9</definedName>
+    <definedName name="variation_se">Sheet2!$I$9</definedName>
+    <definedName name="variation_visitors">Sheet2!$C$9</definedName>
+    <definedName name="z_score">Sheet2!$C$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,19 +61,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>New machine</t>
   </si>
   <si>
     <t xml:space="preserve">    Old machine</t>
+  </si>
+  <si>
+    <t>A/B Testing Significance Calculator | VWO</t>
+  </si>
+  <si>
+    <t>Brought to you by:</t>
+  </si>
+  <si>
+    <t>How to use it?</t>
+  </si>
+  <si>
+    <t>Fill the cells with red background; rest of the cells will update automatically</t>
+  </si>
+  <si>
+    <t>https://vwo.com/</t>
+  </si>
+  <si>
+    <t>90% Conversion Rate Limits</t>
+  </si>
+  <si>
+    <t>95% Conversion Rate Limits</t>
+  </si>
+  <si>
+    <t>99% Conversion Rate Limits</t>
+  </si>
+  <si>
+    <t>Visitors</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Conversion Rate</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Variation</t>
+  </si>
+  <si>
+    <t>Significant At</t>
+  </si>
+  <si>
+    <t>90% confidence:</t>
+  </si>
+  <si>
+    <t>95% confidence:</t>
+  </si>
+  <si>
+    <t>99% confidence:</t>
+  </si>
+  <si>
+    <t>Z-score</t>
+  </si>
+  <si>
+    <t>P-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,16 +147,104 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -87,11 +252,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -99,8 +360,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -114,6 +433,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062FF621-19E8-014F-B0A6-F29D0112A83C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="101600"/>
+          <a:ext cx="1295400" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0C4AC0-6D71-BE49-9C47-3997325C31F2}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +823,7 @@
     <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42.1</v>
       </c>
@@ -445,7 +839,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41</v>
       </c>
@@ -453,7 +847,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41.3</v>
       </c>
@@ -461,7 +855,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41.8</v>
       </c>
@@ -469,7 +863,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42.4</v>
       </c>
@@ -477,7 +871,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42.8</v>
       </c>
@@ -485,7 +879,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43.2</v>
       </c>
@@ -493,7 +887,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42.3</v>
       </c>
@@ -501,7 +895,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>41.8</v>
       </c>
@@ -509,15 +903,322 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42.7</v>
       </c>
       <c r="B11" s="2">
         <v>44.1</v>
       </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>SUM(A2:A12)</f>
+        <v>421.4</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:C13" si="0">SUM(B2:B12)</f>
+        <v>432.30000000000007</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDF0C12-7E13-1A4C-9F8D-8DD203F745EB}">
+  <dimension ref="B1:Y20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="34" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="Q6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="V6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="18"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="18"/>
+    </row>
+    <row r="8" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20">
+        <v>421.4</v>
+      </c>
+      <c r="D8" s="20">
+        <v>134</v>
+      </c>
+      <c r="F8" s="21">
+        <f>control_conversions/control_visitors</f>
+        <v>0.31798766018035124</v>
+      </c>
+      <c r="I8" s="22">
+        <f>SQRT((control_p*(1-control_p)/control_visitors))</f>
+        <v>2.2685794002710254E-2</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="22">
+        <f>IF(control_p-1.65*control_se&lt;0,0,control_p-1.65*control_se)</f>
+        <v>0.28055610007587933</v>
+      </c>
+      <c r="N8" s="22">
+        <f>IF(control_p+1.65*control_se&gt;1,1,control_p+1.65*control_se)</f>
+        <v>0.35541922028482315</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="22">
+        <f>IF(control_p-1.96*control_se&lt;0,0,control_p-1.96*control_se)</f>
+        <v>0.27352350393503916</v>
+      </c>
+      <c r="S8" s="22">
+        <f>IF(control_p+1.96*control_se&gt;1,1,control_p+1.96*control_se)</f>
+        <v>0.36245181642566332</v>
+      </c>
+      <c r="T8" s="18"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="22">
+        <f>IF(control_p-2.57*control_se&lt;0,0,control_p-2.57*control_se)</f>
+        <v>0.25968516959338589</v>
+      </c>
+      <c r="X8" s="22">
+        <f>IF(control_p+2.57*control_se&gt;1,1,control_p+2.57*control_se)</f>
+        <v>0.37629015076731659</v>
+      </c>
+      <c r="Y8" s="18"/>
+    </row>
+    <row r="9" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="20">
+        <v>432.30000000000007</v>
+      </c>
+      <c r="D9" s="20">
+        <v>165</v>
+      </c>
+      <c r="F9" s="24">
+        <f>variation_conversions/variation_visitors</f>
+        <v>0.38167938931297701</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26">
+        <f>SQRT((variation_p*(1-variation_p)/variation_visitors))</f>
+        <v>2.3364882330466855E-2</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="26">
+        <f>IF(variation_p-1.65*variation_se&lt;0,0,variation_p-1.65*variation_se)</f>
+        <v>0.34312733346770669</v>
+      </c>
+      <c r="N9" s="26">
+        <f>IF(variation_p+1.65*variation_se&gt;1,1,variation_p+1.65*variation_se)</f>
+        <v>0.42023144515824734</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="26">
+        <f>IF(variation_p-1.96*variation_se&lt;0,0,variation_p-1.96*variation_se)</f>
+        <v>0.33588421994526196</v>
+      </c>
+      <c r="S9" s="26">
+        <f>IF(variation_p+1.96*variation_se&gt;1,1,variation_p+1.96*variation_se)</f>
+        <v>0.42747455868069206</v>
+      </c>
+      <c r="T9" s="27"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="26">
+        <f>IF(variation_p-2.57*variation_se&lt;0,0,variation_p-2.57*variation_se)</f>
+        <v>0.3216316417236772</v>
+      </c>
+      <c r="X9" s="26">
+        <f>IF(variation_p+2.57*variation_se&gt;1,1,variation_p+2.57*variation_se)</f>
+        <v>0.44172713690227683</v>
+      </c>
+      <c r="Y9" s="27"/>
+    </row>
+    <row r="13" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="str">
+        <f>IF(OR(p_value&lt;0.1,p_value&gt;0.9), "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="str">
+        <f>IF(OR(p_value&lt;0.05,p_value&gt;0.95), "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33" t="str">
+        <f>IF(OR(p_value&lt;0.01,p_value&gt;0.99), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <f>(control_p-variation_p)/SQRT(POWER(control_se,2)+POWER(variation_se,2))</f>
+        <v>-1.955756618128293</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="35">
+        <f>NORMDIST(z_score,0,1,TRUE)</f>
+        <v>2.5246915766532603E-2</v>
+      </c>
+      <c r="D20" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{B80D1B3D-E092-AA4B-AD9C-510AC47C199D}"/>
+    <hyperlink ref="M3" r:id="rId2" display="https://vwo.com/" xr:uid="{79F72BE4-0C4B-CE4E-A6F6-0B1E8903AED8}"/>
+    <hyperlink ref="N3" r:id="rId3" display="https://vwo.com/" xr:uid="{8CEBC028-1282-5547-8C1D-6053D5F54D6A}"/>
+    <hyperlink ref="O3" r:id="rId4" display="https://vwo.com/" xr:uid="{7A12C096-99CE-B14B-B8E8-D1085049C060}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>